--- a/Samples/mysql/mySQLObjectimport.xlsx
+++ b/Samples/mysql/mySQLObjectimport.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="88">
   <si>
     <t xml:space="preserve">Position</t>
   </si>
@@ -228,43 +228,46 @@
     <t xml:space="preserve">twelve</t>
   </si>
   <si>
+    <t xml:space="preserve">SMALLINT(30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database type SMALLINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thirteen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARCHAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database type VARCHAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fourteen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database type DECIMAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fifteen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTEGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database type INTEGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After three empty lines, Joaswizard will stop.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here can be comments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Excel is an example for MySQL datatypes. Did not cross-check the mapping, feel free to make it better.</t>
+  </si>
+  <si>
     <t xml:space="preserve">SMALLINT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database type SMALLINT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thirteen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARCHAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database type VARCHAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fourteen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database type DECIMAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fifteen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTEGER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database type INTEGER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After three empty lines, Joaswizard will stop.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here can be comments.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This Excel is an example for MySQL datatypes. Did not cross-check the mapping, feel free to make it better.</t>
   </si>
   <si>
     <t xml:space="preserve">A description</t>
@@ -404,10 +407,10 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
@@ -904,7 +907,7 @@
       <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.01"/>
@@ -938,13 +941,13 @@
         <v>13</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -952,7 +955,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>30</v>
@@ -961,7 +964,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -969,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>30</v>
@@ -978,7 +981,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1003,7 +1006,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.68"/>
@@ -1038,13 +1041,13 @@
         <v>13</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1052,7 +1055,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>30</v>
@@ -1061,7 +1064,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1069,7 +1072,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>30</v>
@@ -1078,7 +1081,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
